--- a/data/students_data.xlsx
+++ b/data/students_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\PROYECTOS\PYTHON\ESEN\2024\PROYECTO FINAL\IDS-Proyecto-Final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B71AF1-DB66-43AD-B8F5-3EA3975E97CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7086DF-6AED-4ED8-A5C5-BD00D8363C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,97 +36,97 @@
     <t>Student ID</t>
   </si>
   <si>
-    <t>Studiante 1</t>
-  </si>
-  <si>
-    <t>Studiante 2</t>
-  </si>
-  <si>
-    <t>Studiante 3</t>
-  </si>
-  <si>
-    <t>Studiante 4</t>
-  </si>
-  <si>
-    <t>Studiante 5</t>
-  </si>
-  <si>
-    <t>Studiante 6</t>
-  </si>
-  <si>
-    <t>Studiante 7</t>
-  </si>
-  <si>
-    <t>Studiante 8</t>
-  </si>
-  <si>
-    <t>Studiante 9</t>
-  </si>
-  <si>
-    <t>Studiante 10</t>
-  </si>
-  <si>
-    <t>Studiante 11</t>
-  </si>
-  <si>
-    <t>Studiante 12</t>
-  </si>
-  <si>
-    <t>Studiante 13</t>
-  </si>
-  <si>
-    <t>Studiante 14</t>
-  </si>
-  <si>
-    <t>Studiante 15</t>
-  </si>
-  <si>
-    <t>Studiante 16</t>
-  </si>
-  <si>
-    <t>Studiante 17</t>
-  </si>
-  <si>
-    <t>Studiante 18</t>
-  </si>
-  <si>
-    <t>Studiante 19</t>
-  </si>
-  <si>
-    <t>Studiante 20</t>
-  </si>
-  <si>
-    <t>Studiante 21</t>
-  </si>
-  <si>
-    <t>Studiante 22</t>
-  </si>
-  <si>
-    <t>Studiante 23</t>
-  </si>
-  <si>
-    <t>Studiante 24</t>
-  </si>
-  <si>
-    <t>Studiante 25</t>
-  </si>
-  <si>
-    <t>Studiante 26</t>
-  </si>
-  <si>
-    <t>Studiante 27</t>
-  </si>
-  <si>
-    <t>Studiante 28</t>
-  </si>
-  <si>
-    <t>Studiante 29</t>
-  </si>
-  <si>
-    <t>Studiante 30</t>
-  </si>
-  <si>
-    <t>Studiante 31</t>
+    <t>Estudiante 1</t>
+  </si>
+  <si>
+    <t>Estudiante 2</t>
+  </si>
+  <si>
+    <t>Estudiante 3</t>
+  </si>
+  <si>
+    <t>Estudiante 4</t>
+  </si>
+  <si>
+    <t>Estudiante 5</t>
+  </si>
+  <si>
+    <t>Estudiante 6</t>
+  </si>
+  <si>
+    <t>Estudiante 7</t>
+  </si>
+  <si>
+    <t>Estudiante 8</t>
+  </si>
+  <si>
+    <t>Estudiante 9</t>
+  </si>
+  <si>
+    <t>Estudiante 10</t>
+  </si>
+  <si>
+    <t>Estudiante 11</t>
+  </si>
+  <si>
+    <t>Estudiante 12</t>
+  </si>
+  <si>
+    <t>Estudiante 13</t>
+  </si>
+  <si>
+    <t>Estudiante 14</t>
+  </si>
+  <si>
+    <t>Estudiante 15</t>
+  </si>
+  <si>
+    <t>Estudiante 16</t>
+  </si>
+  <si>
+    <t>Estudiante 17</t>
+  </si>
+  <si>
+    <t>Estudiante 18</t>
+  </si>
+  <si>
+    <t>Estudiante 19</t>
+  </si>
+  <si>
+    <t>Estudiante 20</t>
+  </si>
+  <si>
+    <t>Estudiante 21</t>
+  </si>
+  <si>
+    <t>Estudiante 22</t>
+  </si>
+  <si>
+    <t>Estudiante 23</t>
+  </si>
+  <si>
+    <t>Estudiante 24</t>
+  </si>
+  <si>
+    <t>Estudiante 25</t>
+  </si>
+  <si>
+    <t>Estudiante 26</t>
+  </si>
+  <si>
+    <t>Estudiante 27</t>
+  </si>
+  <si>
+    <t>Estudiante 28</t>
+  </si>
+  <si>
+    <t>Estudiante 29</t>
+  </si>
+  <si>
+    <t>Estudiante 30</t>
+  </si>
+  <si>
+    <t>Estudiante 31</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>202401</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>202402</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>202403</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>202404</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>202405</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>202406</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>202407</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>202408</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>202409</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>202410</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>202411</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>202412</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>202413</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>202414</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>202415</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>202416</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>202417</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>202418</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>202419</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>202420</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>202421</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>202422</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>202423</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>202424</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>202425</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>202426</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>202427</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>202428</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>202429</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>202430</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>202431</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>

--- a/data/students_data.xlsx
+++ b/data/students_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\PROYECTOS\PYTHON\ESEN\2024\PROYECTO FINAL\IDS-Proyecto-Final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7086DF-6AED-4ED8-A5C5-BD00D8363C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582FCBB5-620C-4988-A8F2-7C3B8A72D114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
